--- a/biology/Zoologie/Coriocella_hibyae/Coriocella_hibyae.xlsx
+++ b/biology/Zoologie/Coriocella_hibyae/Coriocella_hibyae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coriocella hibyae · Coriocelle d'Hiby, Coriocelle des Maldives, Limace éponge
-Coriocella hibyae, communément nommé Coriocelle d'Hiby ou Coriocelle des Maldives[2], est une espèce de gastéropode de la famille des Velutinidae.
+Coriocella hibyae, communément nommé Coriocelle d'Hiby ou Coriocelle des Maldives, est une espèce de gastéropode de la famille des Velutinidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coriocelle des Maldives peut atteindre une taille maximale de 10 cm[2]. Son aspect physique est caractérisé par cinq digitations dorsales. La teinte du corps varie du bleu ardoise au brun foncé, avec des reflets verts, bleus ou rougeâtres, et des taches noires qui lui confère l'apparence d'une éponge, afin de passer inaperçue aux yeux des prédateurs (et des plongeurs), surtout lorsque cette dernière est immobile sur le récif.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coriocelle des Maldives peut atteindre une taille maximale de 10 cm. Son aspect physique est caractérisé par cinq digitations dorsales. La teinte du corps varie du bleu ardoise au brun foncé, avec des reflets verts, bleus ou rougeâtres, et des taches noires qui lui confère l'apparence d'une éponge, afin de passer inaperçue aux yeux des prédateurs (et des plongeurs), surtout lorsque cette dernière est immobile sur le récif.
 Ses chairs renferment une fine et fragile coquille nacrée en forme d'« oreille ».
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Coriocelle d'Hiby est une espèce endémique présente essentiellement dans les eaux tropicales des Maldives[2] mais aussi plus sporadiquement dans certaines autres régions de l'Océan Indien, et notamment en mer d'Andaman. Elle est surtout active de nuit.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Coriocelle d'Hiby est une espèce endémique présente essentiellement dans les eaux tropicales des Maldives mais aussi plus sporadiquement dans certaines autres régions de l'Océan Indien, et notamment en mer d'Andaman. Elle est surtout active de nuit.
 </t>
         </is>
       </c>
